--- a/dataanalysis/data/predictions/1400/09231409_1411.xlsx
+++ b/dataanalysis/data/predictions/1400/09231409_1411.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-23</t>
   </si>
   <si>
@@ -356,12 +359,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -719,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,19 +825,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300111</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>17.65</v>
@@ -858,7 +858,7 @@
         <v>253365.04</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -900,10 +900,25 @@
         <v>-6.69</v>
       </c>
       <c r="X2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y2">
+        <v>20.03</v>
+      </c>
+      <c r="Z2">
+        <v>8.57</v>
+      </c>
+      <c r="AA2">
+        <v>22.43</v>
       </c>
       <c r="AC2" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -911,22 +926,25 @@
       <c r="AG2">
         <v>68.22855377197266</v>
       </c>
-      <c r="AH2" t="s">
-        <v>114</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300115</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-4.93</v>
@@ -944,7 +962,7 @@
         <v>682370.05</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -986,10 +1004,25 @@
         <v>-0.57</v>
       </c>
       <c r="X3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y3">
+        <v>8.93</v>
+      </c>
+      <c r="Z3">
+        <v>41.2</v>
+      </c>
+      <c r="AA3">
+        <v>14.89</v>
       </c>
       <c r="AC3" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -997,22 +1030,25 @@
       <c r="AG3">
         <v>5.473013877868652</v>
       </c>
-      <c r="AH3" t="s">
-        <v>114</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300139</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4.53</v>
@@ -1030,7 +1066,7 @@
         <v>201066.84</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4">
         <v>11</v>
@@ -1072,10 +1108,25 @@
         <v>-0.01</v>
       </c>
       <c r="X4" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y4">
+        <v>0.47</v>
+      </c>
+      <c r="Z4">
+        <v>28.5</v>
+      </c>
+      <c r="AA4">
+        <v>0.49</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1083,22 +1134,25 @@
       <c r="AG4">
         <v>3.219344615936279</v>
       </c>
-      <c r="AH4" t="s">
-        <v>114</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300207</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.92</v>
@@ -1116,7 +1170,7 @@
         <v>433466.27</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -1158,10 +1212,25 @@
         <v>0.3</v>
       </c>
       <c r="X5" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y5">
+        <v>3.43</v>
+      </c>
+      <c r="Z5">
+        <v>33.52</v>
+      </c>
+      <c r="AA5">
+        <v>7.16</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1169,22 +1238,25 @@
       <c r="AG5">
         <v>6.177868366241455</v>
       </c>
-      <c r="AH5" t="s">
-        <v>114</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300250</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>15.84</v>
@@ -1202,7 +1274,7 @@
         <v>187062.59</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1244,10 +1316,25 @@
         <v>-2.17</v>
       </c>
       <c r="X6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y6">
+        <v>1.75</v>
+      </c>
+      <c r="Z6">
+        <v>28.56</v>
+      </c>
+      <c r="AA6">
+        <v>12.53</v>
       </c>
       <c r="AC6" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1255,22 +1342,25 @@
       <c r="AG6">
         <v>-3.437246799468994</v>
       </c>
-      <c r="AH6" t="s">
-        <v>114</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300450</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>4.43</v>
@@ -1288,7 +1378,7 @@
         <v>1151822.03</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7">
         <v>18</v>
@@ -1330,10 +1420,25 @@
         <v>-0.1</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y7">
+        <v>7.27</v>
+      </c>
+      <c r="Z7">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>11.8</v>
       </c>
       <c r="AC7" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1341,22 +1446,25 @@
       <c r="AG7">
         <v>15.46235275268555</v>
       </c>
-      <c r="AH7" t="s">
-        <v>114</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300475</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-5.83</v>
@@ -1374,7 +1482,7 @@
         <v>389547.57</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8">
         <v>13</v>
@@ -1416,10 +1524,25 @@
         <v>-0.31</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y8">
+        <v>1.98</v>
+      </c>
+      <c r="Z8">
+        <v>86.66</v>
+      </c>
+      <c r="AA8">
+        <v>4.98</v>
       </c>
       <c r="AC8" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1427,22 +1550,25 @@
       <c r="AG8">
         <v>12.91265106201172</v>
       </c>
-      <c r="AH8" t="s">
-        <v>114</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300507</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-0.2</v>
@@ -1460,7 +1586,7 @@
         <v>88275.95</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1502,10 +1628,25 @@
         <v>0.35</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y9">
+        <v>0.89</v>
+      </c>
+      <c r="Z9">
+        <v>10.38</v>
+      </c>
+      <c r="AA9">
+        <v>3.18</v>
       </c>
       <c r="AC9" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1513,22 +1654,25 @@
       <c r="AG9">
         <v>4.265216827392578</v>
       </c>
-      <c r="AH9" t="s">
-        <v>114</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300539</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.37</v>
@@ -1546,7 +1690,7 @@
         <v>125456.68</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>13</v>
@@ -1588,10 +1732,25 @@
         <v>0.04</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y10">
+        <v>0.65</v>
+      </c>
+      <c r="Z10">
+        <v>51.88</v>
+      </c>
+      <c r="AA10">
+        <v>6.62</v>
       </c>
       <c r="AC10" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1599,22 +1758,25 @@
       <c r="AG10">
         <v>12.94845390319824</v>
       </c>
-      <c r="AH10" t="s">
-        <v>114</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300604</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -1632,7 +1794,7 @@
         <v>419713.13</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11">
         <v>20</v>
@@ -1674,10 +1836,25 @@
         <v>1.38</v>
       </c>
       <c r="X11" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>20</v>
       </c>
       <c r="AC11" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1685,22 +1862,25 @@
       <c r="AG11">
         <v>3.45917797088623</v>
       </c>
-      <c r="AH11" t="s">
-        <v>114</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300620</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-7.82</v>
@@ -1718,7 +1898,7 @@
         <v>388113.51</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1760,10 +1940,25 @@
         <v>-0.89</v>
       </c>
       <c r="X12" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y12">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>128.15</v>
+      </c>
+      <c r="AA12">
+        <v>0.59</v>
       </c>
       <c r="AC12" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1771,22 +1966,25 @@
       <c r="AG12">
         <v>2.90624475479126</v>
       </c>
-      <c r="AH12" t="s">
-        <v>114</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300680</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.39</v>
@@ -1804,7 +2002,7 @@
         <v>120851.26</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1846,10 +2044,25 @@
         <v>0.29</v>
       </c>
       <c r="X13" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y13">
+        <v>2.41</v>
+      </c>
+      <c r="Z13">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="AA13">
+        <v>7.61</v>
       </c>
       <c r="AC13" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1857,22 +2070,25 @@
       <c r="AG13">
         <v>2.596925020217896</v>
       </c>
-      <c r="AH13" t="s">
-        <v>114</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300814</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.73</v>
@@ -1890,7 +2106,7 @@
         <v>123505.63</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -1932,10 +2148,25 @@
         <v>1.48</v>
       </c>
       <c r="X14" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="Y14">
+        <v>-0.95</v>
+      </c>
+      <c r="Z14">
+        <v>52.49</v>
+      </c>
+      <c r="AA14">
+        <v>2.7</v>
       </c>
       <c r="AC14" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1943,22 +2174,25 @@
       <c r="AG14">
         <v>6.496422290802002</v>
       </c>
-      <c r="AH14" t="s">
-        <v>114</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300857</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-6.49</v>
@@ -1976,7 +2210,7 @@
         <v>384562.41</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15">
         <v>23</v>
@@ -2018,10 +2252,25 @@
         <v>-0.37</v>
       </c>
       <c r="X15" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y15">
+        <v>1.79</v>
+      </c>
+      <c r="Z15">
+        <v>174.4</v>
+      </c>
+      <c r="AA15">
+        <v>6.56</v>
       </c>
       <c r="AC15" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2029,22 +2278,25 @@
       <c r="AG15">
         <v>1.820902824401855</v>
       </c>
-      <c r="AH15" t="s">
-        <v>114</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300959</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.69</v>
@@ -2062,7 +2314,7 @@
         <v>88005.57000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2104,10 +2356,25 @@
         <v>1.15</v>
       </c>
       <c r="X16" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y16">
+        <v>-2.64</v>
+      </c>
+      <c r="Z16">
+        <v>82</v>
+      </c>
+      <c r="AA16">
+        <v>4.26</v>
       </c>
       <c r="AC16" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2115,22 +2382,25 @@
       <c r="AG16">
         <v>4.116593360900879</v>
       </c>
-      <c r="AH16" t="s">
-        <v>114</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300969</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>12.99</v>
@@ -2148,7 +2418,7 @@
         <v>83115.19</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2190,10 +2460,25 @@
         <v>0.01</v>
       </c>
       <c r="X17" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y17">
+        <v>-2.16</v>
+      </c>
+      <c r="Z17">
+        <v>137.47</v>
+      </c>
+      <c r="AA17">
+        <v>0.88</v>
       </c>
       <c r="AC17" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2201,22 +2486,25 @@
       <c r="AG17">
         <v>1.567538619041443</v>
       </c>
-      <c r="AH17" t="s">
-        <v>114</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>301008</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>5.63</v>
@@ -2234,7 +2522,7 @@
         <v>91566.96000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2276,10 +2564,25 @@
         <v>0.37</v>
       </c>
       <c r="X18" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y18">
+        <v>-5.74</v>
+      </c>
+      <c r="Z18">
+        <v>51.74</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2287,22 +2590,25 @@
       <c r="AG18">
         <v>9.60441780090332</v>
       </c>
-      <c r="AH18" t="s">
-        <v>115</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>301013</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-8.130000000000001</v>
@@ -2320,7 +2626,7 @@
         <v>168720.84</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2362,10 +2668,25 @@
         <v>-0.14</v>
       </c>
       <c r="X19" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y19">
+        <v>-4.52</v>
+      </c>
+      <c r="Z19">
+        <v>29.48</v>
+      </c>
+      <c r="AA19">
+        <v>5.21</v>
       </c>
       <c r="AC19" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2373,22 +2694,25 @@
       <c r="AG19">
         <v>4.370211124420166</v>
       </c>
-      <c r="AH19" t="s">
-        <v>114</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>301307</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-4.13</v>
@@ -2406,7 +2730,7 @@
         <v>71126.95</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -2448,10 +2772,25 @@
         <v>0.35</v>
       </c>
       <c r="X20" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y20">
+        <v>-0.45</v>
+      </c>
+      <c r="Z20">
+        <v>43.21</v>
+      </c>
+      <c r="AA20">
+        <v>12.67</v>
       </c>
       <c r="AC20" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2459,22 +2798,25 @@
       <c r="AG20">
         <v>0.7782940268516541</v>
       </c>
-      <c r="AH20" t="s">
-        <v>114</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>301308</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-0.04</v>
@@ -2492,7 +2834,7 @@
         <v>293461.12</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2534,10 +2876,25 @@
         <v>0.22</v>
       </c>
       <c r="X21" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y21">
+        <v>4.55</v>
+      </c>
+      <c r="Z21">
+        <v>157.77</v>
+      </c>
+      <c r="AA21">
+        <v>12.18</v>
       </c>
       <c r="AC21" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2545,22 +2902,25 @@
       <c r="AG21">
         <v>-0.7618442177772522</v>
       </c>
-      <c r="AH21" t="s">
-        <v>114</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>301319</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>4.94</v>
@@ -2578,7 +2938,7 @@
         <v>70597.59</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2620,10 +2980,25 @@
         <v>0.85</v>
       </c>
       <c r="X22" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y22">
+        <v>4.03</v>
+      </c>
+      <c r="Z22">
+        <v>47.4</v>
+      </c>
+      <c r="AA22">
+        <v>7.34</v>
       </c>
       <c r="AC22" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2631,22 +3006,25 @@
       <c r="AG22">
         <v>79.40147399902344</v>
       </c>
-      <c r="AH22" t="s">
-        <v>114</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301421</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>5.37</v>
@@ -2664,7 +3042,7 @@
         <v>220209.36</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2706,10 +3084,25 @@
         <v>0.41</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y23">
+        <v>-1.47</v>
+      </c>
+      <c r="Z23">
+        <v>142.09</v>
+      </c>
+      <c r="AA23">
+        <v>24.86</v>
       </c>
       <c r="AC23" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2717,22 +3110,25 @@
       <c r="AG23">
         <v>7.311791896820068</v>
       </c>
-      <c r="AH23" t="s">
-        <v>114</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301488</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.61</v>
@@ -2750,7 +3146,7 @@
         <v>111640.97</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24">
         <v>20</v>
@@ -2792,10 +3188,25 @@
         <v>0.25</v>
       </c>
       <c r="X24" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y24">
+        <v>-7.34</v>
+      </c>
+      <c r="Z24">
+        <v>187</v>
+      </c>
+      <c r="AA24">
+        <v>-0.15</v>
       </c>
       <c r="AC24" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2803,22 +3214,25 @@
       <c r="AG24">
         <v>1.256890058517456</v>
       </c>
-      <c r="AH24" t="s">
-        <v>114</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301489</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-1.34</v>
@@ -2836,7 +3250,7 @@
         <v>109652.58</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -2878,10 +3292,25 @@
         <v>-0.21</v>
       </c>
       <c r="X25" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y25">
+        <v>1.86</v>
+      </c>
+      <c r="Z25">
+        <v>275.28</v>
+      </c>
+      <c r="AA25">
+        <v>4.12</v>
       </c>
       <c r="AC25" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2889,22 +3318,25 @@
       <c r="AG25">
         <v>-2.493815183639526</v>
       </c>
-      <c r="AH25" t="s">
-        <v>114</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301550</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.39</v>
@@ -2922,7 +3354,7 @@
         <v>63414.47</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2964,10 +3396,25 @@
         <v>-0.09</v>
       </c>
       <c r="X26" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y26">
+        <v>2.55</v>
+      </c>
+      <c r="Z26">
+        <v>136.88</v>
+      </c>
+      <c r="AA26">
+        <v>6.4</v>
       </c>
       <c r="AC26" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2975,22 +3422,25 @@
       <c r="AG26">
         <v>11.00524139404297</v>
       </c>
-      <c r="AH26" t="s">
-        <v>114</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>688028</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-5.23</v>
@@ -3008,7 +3458,7 @@
         <v>46123.24</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -3050,10 +3500,25 @@
         <v>-0.03</v>
       </c>
       <c r="X27" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y27">
+        <v>4.76</v>
+      </c>
+      <c r="Z27">
+        <v>53.67</v>
+      </c>
+      <c r="AA27">
+        <v>11.67</v>
       </c>
       <c r="AC27" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3061,22 +3526,25 @@
       <c r="AG27">
         <v>10.42608165740967</v>
       </c>
-      <c r="AH27" t="s">
-        <v>114</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688041</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-4.21</v>
@@ -3094,7 +3562,7 @@
         <v>1133679.51</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3136,10 +3604,25 @@
         <v>-0.11</v>
       </c>
       <c r="X28" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y28">
+        <v>2.05</v>
+      </c>
+      <c r="Z28">
+        <v>267</v>
+      </c>
+      <c r="AA28">
+        <v>6.71</v>
       </c>
       <c r="AC28" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3147,22 +3630,25 @@
       <c r="AG28">
         <v>136.8837890625</v>
       </c>
-      <c r="AH28" t="s">
-        <v>114</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688123</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>7.66</v>
@@ -3180,7 +3666,7 @@
         <v>236617.83</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3222,10 +3708,25 @@
         <v>-0.85</v>
       </c>
       <c r="X29" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y29">
+        <v>6.92</v>
+      </c>
+      <c r="Z29">
+        <v>133.82</v>
+      </c>
+      <c r="AA29">
+        <v>15.21</v>
       </c>
       <c r="AC29" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3233,22 +3734,25 @@
       <c r="AG29">
         <v>-8.281403541564941</v>
       </c>
-      <c r="AH29" t="s">
-        <v>114</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688135</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>4.16</v>
@@ -3266,7 +3770,7 @@
         <v>107166.53</v>
       </c>
       <c r="J30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30">
         <v>16</v>
@@ -3308,10 +3812,25 @@
         <v>0.87</v>
       </c>
       <c r="X30" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y30">
+        <v>-0.05</v>
+      </c>
+      <c r="Z30">
+        <v>39.48</v>
+      </c>
+      <c r="AA30">
+        <v>7.28</v>
       </c>
       <c r="AC30" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3319,22 +3838,25 @@
       <c r="AG30">
         <v>2.688379049301147</v>
       </c>
-      <c r="AH30" t="s">
-        <v>114</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688195</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-5.35</v>
@@ -3352,7 +3874,7 @@
         <v>153053.75</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K31">
         <v>27</v>
@@ -3394,10 +3916,25 @@
         <v>-0.44</v>
       </c>
       <c r="X31" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y31">
+        <v>-4.47</v>
+      </c>
+      <c r="Z31">
+        <v>142</v>
+      </c>
+      <c r="AA31">
+        <v>4.91</v>
       </c>
       <c r="AC31" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3405,22 +3942,25 @@
       <c r="AG31">
         <v>3.1050865650177</v>
       </c>
-      <c r="AH31" t="s">
-        <v>114</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688228</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-14.94</v>
@@ -3438,7 +3978,7 @@
         <v>78802.71000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -3480,10 +4020,25 @@
         <v>0.08</v>
       </c>
       <c r="X32" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y32">
+        <v>2.27</v>
+      </c>
+      <c r="Z32">
+        <v>200.88</v>
+      </c>
+      <c r="AA32">
+        <v>10.36</v>
       </c>
       <c r="AC32" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3491,22 +4046,25 @@
       <c r="AG32">
         <v>6.85657262802124</v>
       </c>
-      <c r="AH32" t="s">
-        <v>114</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688332</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.64</v>
@@ -3524,7 +4082,7 @@
         <v>164208.67</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3565,8 +4123,23 @@
       <c r="W33">
         <v>-0.25</v>
       </c>
+      <c r="Y33">
+        <v>0.21</v>
+      </c>
+      <c r="Z33">
+        <v>156.38</v>
+      </c>
+      <c r="AA33">
+        <v>7.92</v>
+      </c>
       <c r="AC33" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3574,22 +4147,25 @@
       <c r="AG33">
         <v>0.6437965631484985</v>
       </c>
-      <c r="AH33" t="s">
-        <v>114</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688400</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-5.26</v>
@@ -3607,7 +4183,7 @@
         <v>148849.74</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34">
         <v>9</v>
@@ -3649,10 +4225,25 @@
         <v>-0.14</v>
       </c>
       <c r="X34" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y34">
+        <v>-5.28</v>
+      </c>
+      <c r="Z34">
+        <v>51.68</v>
+      </c>
+      <c r="AA34">
+        <v>1.73</v>
       </c>
       <c r="AC34" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3660,22 +4251,25 @@
       <c r="AG34">
         <v>0.003403906477615237</v>
       </c>
-      <c r="AH34" t="s">
-        <v>114</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688411</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>14.25</v>
@@ -3693,7 +4287,7 @@
         <v>117512.1</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35">
         <v>16</v>
@@ -3735,10 +4329,25 @@
         <v>0.23</v>
       </c>
       <c r="X35" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y35">
+        <v>4.3</v>
+      </c>
+      <c r="Z35">
+        <v>278.2</v>
+      </c>
+      <c r="AA35">
+        <v>11.98</v>
       </c>
       <c r="AC35" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3746,22 +4355,25 @@
       <c r="AG35">
         <v>0.2653463780879974</v>
       </c>
-      <c r="AH35" t="s">
-        <v>114</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688521</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-3.18</v>
@@ -3779,7 +4391,7 @@
         <v>551905.13</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -3821,10 +4433,25 @@
         <v>-0.44</v>
       </c>
       <c r="X36" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y36">
+        <v>-3.35</v>
+      </c>
+      <c r="Z36">
+        <v>205.88</v>
+      </c>
+      <c r="AA36">
+        <v>4.75</v>
       </c>
       <c r="AC36" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3832,22 +4459,25 @@
       <c r="AG36">
         <v>-1.460717558860779</v>
       </c>
-      <c r="AH36" t="s">
-        <v>114</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688525</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.88</v>
@@ -3865,7 +4495,7 @@
         <v>314559.23</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3907,10 +4537,25 @@
         <v>0.67</v>
       </c>
       <c r="X37" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y37">
+        <v>6.51</v>
+      </c>
+      <c r="Z37">
+        <v>95.18000000000001</v>
+      </c>
+      <c r="AA37">
+        <v>11.69</v>
       </c>
       <c r="AC37" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3918,22 +4563,25 @@
       <c r="AG37">
         <v>-0.636148989200592</v>
       </c>
-      <c r="AH37" t="s">
-        <v>114</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688627</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>13.82</v>
@@ -3951,7 +4599,7 @@
         <v>115029.95</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -3993,10 +4641,25 @@
         <v>0.2</v>
       </c>
       <c r="X38" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y38">
+        <v>1.13</v>
+      </c>
+      <c r="Z38">
+        <v>188.95</v>
+      </c>
+      <c r="AA38">
+        <v>8.5</v>
       </c>
       <c r="AC38" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4004,22 +4667,25 @@
       <c r="AG38">
         <v>15.73986721038818</v>
       </c>
-      <c r="AH38" t="s">
-        <v>115</v>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688629</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.54</v>
@@ -4037,7 +4703,7 @@
         <v>180436.8</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -4079,10 +4745,25 @@
         <v>-1.01</v>
       </c>
       <c r="X39" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y39">
+        <v>-0.78</v>
+      </c>
+      <c r="Z39">
+        <v>103.62</v>
+      </c>
+      <c r="AA39">
+        <v>2.94</v>
       </c>
       <c r="AC39" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4090,22 +4771,25 @@
       <c r="AG39">
         <v>4.351316452026367</v>
       </c>
-      <c r="AH39" t="s">
-        <v>114</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688678</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.99</v>
@@ -4123,7 +4807,7 @@
         <v>67953.94</v>
       </c>
       <c r="J40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4165,10 +4849,25 @@
         <v>0.41</v>
       </c>
       <c r="X40" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y40">
+        <v>-3.26</v>
+      </c>
+      <c r="Z40">
+        <v>37.37</v>
+      </c>
+      <c r="AA40">
+        <v>3.4</v>
       </c>
       <c r="AC40" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4176,22 +4875,25 @@
       <c r="AG40">
         <v>6.196329116821289</v>
       </c>
-      <c r="AH40" t="s">
-        <v>114</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688766</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-5.09</v>
@@ -4209,7 +4911,7 @@
         <v>138952.96</v>
       </c>
       <c r="J41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4251,10 +4953,25 @@
         <v>-0.14</v>
       </c>
       <c r="X41" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y41">
+        <v>2.35</v>
+      </c>
+      <c r="Z41">
+        <v>110.49</v>
+      </c>
+      <c r="AA41">
+        <v>7.06</v>
       </c>
       <c r="AC41" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4262,22 +4979,25 @@
       <c r="AG41">
         <v>-1.056238055229187</v>
       </c>
-      <c r="AH41" t="s">
-        <v>114</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688981</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-4.5</v>
@@ -4295,7 +5015,7 @@
         <v>1411463.07</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4337,10 +5057,25 @@
         <v>-0.79</v>
       </c>
       <c r="X42" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y42">
+        <v>5.03</v>
+      </c>
+      <c r="Z42">
+        <v>137.98</v>
+      </c>
+      <c r="AA42">
+        <v>12.07</v>
       </c>
       <c r="AC42" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4348,8 +5083,11 @@
       <c r="AG42">
         <v>5.076580047607422</v>
       </c>
-      <c r="AH42" t="s">
-        <v>114</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
